--- a/Python/Results Summary/Results_EI_NegativeNEin2050_-724_TrueREFERENCElTrans.xlsx
+++ b/Python/Results Summary/Results_EI_NegativeNEin2050_-724_TrueREFERENCElTrans.xlsx
@@ -470,7 +470,7 @@
         <v>29</v>
       </c>
       <c r="E1">
-        <v>168215.6224165752</v>
+        <v>166454.0140331989</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -486,7 +486,7 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>13728.69047222979</v>
+        <v>9590.87410235451</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -494,7 +494,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>13728.69047222979</v>
+        <v>9590.87410235451</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -508,7 +508,7 @@
         <v>30</v>
       </c>
       <c r="E6">
-        <v>293394.9397021016</v>
+        <v>307670.0291028385</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -524,7 +524,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>100620.0359350895</v>
+        <v>115441.4761989929</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -532,7 +532,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>100620.0359350895</v>
+        <v>115441.4761989929</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -546,7 +546,7 @@
         <v>31</v>
       </c>
       <c r="E12">
-        <v>461610.5621186768</v>
+        <v>474124.0431360374</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -562,7 +562,7 @@
         <v>10</v>
       </c>
       <c r="B14">
-        <v>114348.7264073193</v>
+        <v>125032.3503013474</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -570,7 +570,7 @@
         <v>11</v>
       </c>
       <c r="B16">
-        <v>114348.7264073193</v>
+        <v>125032.3503013474</v>
       </c>
     </row>
   </sheetData>
@@ -646,10 +646,10 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>22219.36773780896</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>22219.36773780896</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -663,16 +663,16 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>31669.7988568935</v>
+        <v>16065.10759285183</v>
       </c>
       <c r="E4">
-        <v>31669.7988568935</v>
+        <v>16065.10759285183</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>22219.36773780896</v>
       </c>
       <c r="H4">
-        <v>31669.7988568935</v>
+        <v>38284.4753306608</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>548369.9683355999</v>
+        <v>751382.6445986009</v>
       </c>
       <c r="E6">
-        <v>548369.9683355999</v>
+        <v>751382.6445986009</v>
       </c>
       <c r="G6">
-        <v>495850.951575947</v>
+        <v>427734.6502381635</v>
       </c>
       <c r="H6">
-        <v>1044220.919911547</v>
+        <v>1179117.294836764</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -732,16 +732,16 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>396745.4114529595</v>
+        <v>406897.3481040191</v>
       </c>
       <c r="E7">
-        <v>396745.4114529595</v>
+        <v>406897.3481040191</v>
       </c>
       <c r="G7">
-        <v>110027.4684408521</v>
+        <v>138553.9708664757</v>
       </c>
       <c r="H7">
-        <v>506772.8798938117</v>
+        <v>545451.3189704948</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -755,16 +755,16 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>149670.8030330393</v>
+        <v>92434.04631847711</v>
       </c>
       <c r="E8">
-        <v>149670.8030330393</v>
+        <v>92434.04631847711</v>
       </c>
       <c r="G8">
-        <v>29555.22121588059</v>
+        <v>40760.83822365347</v>
       </c>
       <c r="H8">
-        <v>179226.0242489199</v>
+        <v>133194.8845421306</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -778,16 +778,16 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>43873.82977970999</v>
+        <v>81610.36746572398</v>
       </c>
       <c r="E9">
-        <v>43873.82977970999</v>
+        <v>81610.36746572398</v>
       </c>
       <c r="G9">
-        <v>98053.69644910592</v>
+        <v>41299.33588926865</v>
       </c>
       <c r="H9">
-        <v>141927.5262288159</v>
+        <v>122909.7033549926</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -801,16 +801,16 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>-2946.114807447328</v>
+        <v>-1531.58197229611</v>
       </c>
       <c r="E10">
-        <v>-2946.114807447328</v>
+        <v>-1531.58197229611</v>
       </c>
       <c r="G10">
-        <v>-146699.1409465318</v>
+        <v>-160870.4117847555</v>
       </c>
       <c r="H10">
-        <v>-149645.2557539791</v>
+        <v>-162401.9937570516</v>
       </c>
     </row>
   </sheetData>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>17923.26899321711</v>
+        <v>11126.53126899738</v>
       </c>
       <c r="E3">
-        <v>17923.26899321711</v>
+        <v>11126.53126899738</v>
       </c>
       <c r="G3">
-        <v>5105.398434732827</v>
+        <v>3061.039229923832</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -903,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>5627.311226352549</v>
+        <v>4257.098002582642</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -917,13 +917,13 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>24812.92221298613</v>
+        <v>31333.40063878551</v>
       </c>
       <c r="E5">
-        <v>24812.92221298613</v>
+        <v>31333.40063878551</v>
       </c>
       <c r="G5">
-        <v>23769.06769637133</v>
+        <v>28714.69817431114</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>46501.63664238612</v>
+        <v>72943.95499404572</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -963,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>18906.75152416772</v>
+        <v>27842.8219185937</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -977,13 +977,13 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.6237000000000003</v>
+        <v>0.6942600000000003</v>
       </c>
       <c r="E8">
-        <v>0.6237000000000003</v>
+        <v>0.6942600000000003</v>
       </c>
       <c r="G8">
-        <v>0.32076</v>
+        <v>0.7032600000000004</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1003,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>7245.179884325358</v>
+        <v>13681.21632076145</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1037,10 +1037,10 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>429.7044367339032</v>
+        <v>14.99046658797108</v>
       </c>
       <c r="E11">
-        <v>429.7044367339032</v>
+        <v>14.99046658797108</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>205.678787854578</v>
+        <v>5.433050700000001</v>
       </c>
       <c r="E12">
-        <v>205.678787854578</v>
+        <v>5.433050700000001</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1077,13 +1077,13 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>87.50361973382859</v>
+        <v>31.33300000000003</v>
       </c>
       <c r="E13">
-        <v>87.50361973382859</v>
+        <v>31.33300000000003</v>
       </c>
       <c r="G13">
-        <v>22.97150000000003</v>
+        <v>30.89929999999996</v>
       </c>
     </row>
   </sheetData>
@@ -1176,16 +1176,16 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>8030.245391800086</v>
+        <v>4324.386304860578</v>
       </c>
       <c r="E4">
-        <v>8030.245391800086</v>
+        <v>4324.386304860578</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>5826.855765341707</v>
       </c>
       <c r="H4">
-        <v>8030.245391800086</v>
+        <v>10151.24207020228</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1222,16 +1222,16 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>49168.42855544078</v>
+        <v>79905.87932610336</v>
       </c>
       <c r="E6">
-        <v>49168.42855544078</v>
+        <v>79905.87932610336</v>
       </c>
       <c r="G6">
-        <v>41756.37223104374</v>
+        <v>53666.63203198696</v>
       </c>
       <c r="H6">
-        <v>90924.80078648453</v>
+        <v>133572.5113580903</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1245,16 +1245,16 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>21572.50191459759</v>
+        <v>26348.24730228891</v>
       </c>
       <c r="E7">
-        <v>21572.50191459759</v>
+        <v>26348.24730228891</v>
       </c>
       <c r="G7">
-        <v>5283.013517015187</v>
+        <v>9631.381818342501</v>
       </c>
       <c r="H7">
-        <v>26855.51543161278</v>
+        <v>35979.62912063141</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1268,16 +1268,16 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>7113.783598340528</v>
+        <v>6104.060621918711</v>
       </c>
       <c r="E8">
-        <v>7113.783598340528</v>
+        <v>6104.060621918711</v>
       </c>
       <c r="G8">
-        <v>1064.132807273922</v>
+        <v>2586.245197951435</v>
       </c>
       <c r="H8">
-        <v>8177.91640561445</v>
+        <v>8690.305819870147</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8609.67532914227</v>
+        <v>17454.63295397974</v>
       </c>
       <c r="E9">
-        <v>8609.67532914227</v>
+        <v>17454.63295397974</v>
       </c>
       <c r="G9">
-        <v>16837.83087155122</v>
+        <v>10804.20552000634</v>
       </c>
       <c r="H9">
-        <v>25447.5062006935</v>
+        <v>28258.83847398607</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1314,16 +1314,16 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>-492.3170928436549</v>
+        <v>-422.7166243537289</v>
       </c>
       <c r="E10">
-        <v>-492.3170928436549</v>
+        <v>-422.7166243537289</v>
       </c>
       <c r="G10">
-        <v>-36807.85982293306</v>
+        <v>-45265.38533727563</v>
       </c>
       <c r="H10">
-        <v>-37300.17691577671</v>
+        <v>-45688.10196162936</v>
       </c>
     </row>
   </sheetData>
